--- a/output.xlsx
+++ b/output.xlsx
@@ -68,13 +68,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,13 +478,10 @@
           <t>Warm-Up/Follow-Up Exercise</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="2">
+      <c r="C2" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2">
         <f>C2*D2</f>
         <v/>
       </c>
@@ -499,13 +495,10 @@
           <t>Quizzes (best 5 of 6)</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="2">
+      <c r="C3" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
         <f>C3*D3</f>
         <v/>
       </c>
@@ -519,13 +512,10 @@
           <t>In-Class Test 1</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="2">
+      <c r="C4" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
         <f>C4*D4</f>
         <v/>
       </c>
@@ -539,13 +529,10 @@
           <t>In-Class Test 2</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="2">
+      <c r="C5" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
         <f>C5*D5</f>
         <v/>
       </c>
@@ -559,14 +546,22 @@
           <t>Final Exam</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="2">
+      <c r="C6" s="2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E6">
         <f>C6*D6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E7">
+        <f>E2+E3+E4+E5+E6</f>
         <v/>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Course Weight" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Course Weight" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -6,7 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Course Weight" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prof_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Course Weight" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +451,97 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Gordana Colby</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>gcolby@yorku.ca</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>office</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>VH 1044</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>office_hrs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tuesdays10-11am or by appointment</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>component</t>
         </is>
       </c>

--- a/output.xlsx
+++ b/output.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prof_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Course Weight" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Schedule" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Course Weight" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,6 +532,232 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>topic</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Thurs Sept 5th</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Intro &amp; Course Administration – Ch. 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Thurs Sept 12th</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ch.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thurs Sept 19th</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ch.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thurs Sept 26th</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ch.4 &amp; Ch.5.2-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thurs Oct 3rd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ch.6.1-3 &amp; Start Ch. 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thurs Oct 10th</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Finish Ch. 8 &amp; Start Ch.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thurs Oct 17th</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fall Term Reading Week (No Classes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thurs Oct 24th</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Test 1 (Ch. 2-6) &amp; Finish Ch. 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Thurs Oct 31st</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ch. 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Thurs Nov 7th</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ch. 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Thurs Nov 14th</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ch.14.2 &amp; Start Ch. 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Thurs Nov 21st</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Test 2 (Ch. 8,10-12) &amp; Finish Ch. 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Thurs Nov 28th</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ch.16.1-2 &amp; Ch. 17.1-2 (&amp; Makeup Test)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
